--- a/data-raw/model-runs/BR_voluntarysupplement_2023.xlsx
+++ b/data-raw/model-runs/BR_voluntarysupplement_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbrownin\GitHub\BR_supplement_2023\BR VS Projections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbrownin\GitHub\BTR\data-raw\model-runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CC1ED7-5969-49EE-899A-D4DFEF54EF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF60E05-FF5C-4504-98F7-2C8B62DEFA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5D257420-CEFD-4359-9AD1-E1CEE4FC7F7A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{5D257420-CEFD-4359-9AD1-E1CEE4FC7F7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -564,10 +564,20 @@
   <dimension ref="A1:M170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/data-raw/model-runs/BR_voluntarysupplement_2023.xlsx
+++ b/data-raw/model-runs/BR_voluntarysupplement_2023.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbrownin\GitHub\BTR\data-raw\model-runs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlopez\Github\BTR\data-raw\model-runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF60E05-FF5C-4504-98F7-2C8B62DEFA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41F8F9D-7360-41BC-B389-3F239E77EEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{5D257420-CEFD-4359-9AD1-E1CEE4FC7F7A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5D257420-CEFD-4359-9AD1-E1CEE4FC7F7A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="br_vs" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -564,7 +564,7 @@
   <dimension ref="A1:M170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
